--- a/report_ca_nhan/SÓC TRĂNG/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>455000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2630178.571428571</v>
+        <v>3439464.285714286</v>
       </c>
     </row>
     <row r="23">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3329978.571428571</v>
+        <v>4279264.285714285</v>
       </c>
     </row>
     <row r="34">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3329978.571428571</v>
+        <v>4279264.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/SÓC TRĂNG/NV-16 Kha Như Huỳnh  7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-16 Kha Như Huỳnh  7-2024.xlsx
@@ -790,7 +790,7 @@
         <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="3">
@@ -824,7 +824,7 @@
         <v>0.02</v>
       </c>
       <c r="N3" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,20 +1546,63 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>578</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>450000</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +2161,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="25">
@@ -2148,7 +2191,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>450000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28">
@@ -2208,7 +2251,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4279264.285714285</v>
+        <v>4319264.285714285</v>
       </c>
     </row>
     <row r="34">
@@ -2218,7 +2261,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4279264.285714285</v>
+        <v>4319264.285714285</v>
       </c>
     </row>
   </sheetData>
